--- a/src/main/resources/assets/template.xlsx
+++ b/src/main/resources/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwhite/vCheck1.1/src/main/resources/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{8C3FA340-9985-8B48-A9C6-451B1E02D21A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{60A74CE7-F399-C04F-9B35-9366F264A539}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18460" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   <calcPr calcId="179021"/>
   <customWorkbookViews>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" mergeInterval="0" personalView="1" yWindow="23" windowWidth="923" windowHeight="597" activeSheetId="1"/>
+    <customWorkbookView name="Jill Heath - Personal View" guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="927" activeSheetId="1"/>
     <customWorkbookView name="Carrie Andrews - Personal View" guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1672" yWindow="-8" windowWidth="1696" windowHeight="1026" activeSheetId="1"/>
-    <customWorkbookView name="Jill Heath - Personal View" guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="927" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{379B1AED-9713-5643-9AE1-ABD20A6A019C}" diskRevisions="1" revisionId="31" version="4" preserveHistory="1825">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5758893F-AFB4-2C4F-8631-297D426C7962}" diskRevisions="1" revisionId="36" version="5" preserveHistory="1825">
   <header guid="{38C3440D-4EC0-4292-BC84-4A302E87F478}" dateTime="2014-08-25T14:40:29" maxSheetId="5" userName="Nicole VanDyke" r:id="rId12">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2053,6 +2053,14 @@
     </sheetIdMap>
   </header>
   <header guid="{379B1AED-9713-5643-9AE1-ABD20A6A019C}" dateTime="2018-09-17T15:51:07" maxSheetId="5" userName="Microsoft Office User" r:id="rId17" minRId="29" maxRId="31">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5758893F-AFB4-2C4F-8631-297D426C7962}" dateTime="2018-09-17T20:52:05" maxSheetId="5" userName="Microsoft Office User" r:id="rId18" minRId="32" maxRId="36">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2126,8 +2134,42 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="32" sId="1">
+    <nc r="C21">
+      <v>2123</v>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="1">
+    <nc r="C23">
+      <v>12123</v>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="1">
+    <nc r="C35">
+      <v>12123</v>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="1">
+    <nc r="C40">
+      <v>123123</v>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="1">
+    <nc r="C45">
+      <v>123</v>
+    </nc>
+  </rcc>
+  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="delete"/>
+  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{5758893F-AFB4-2C4F-8631-297D426C7962}" name="Microsoft Office User" id="-296959979" dateTime="2018-09-17T20:51:51"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2455,8 +2497,8 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3171,14 +3213,16 @@
         <f t="array" ref="B21">SUM(IF(A21='Raw Data'!B:B,'Raw Data'!E:E,IF(A21='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>2123</v>
+      </c>
       <c r="D21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2123</v>
       </c>
       <c r="F21" s="26" t="e">
         <f t="shared" si="4"/>
@@ -3245,14 +3289,16 @@
         <f t="array" ref="B23">SUM(IF(A23='Raw Data'!B:B,'Raw Data'!E:E,IF(A23='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>12123</v>
+      </c>
       <c r="D23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12123</v>
       </c>
       <c r="F23" s="26" t="e">
         <f t="shared" si="4"/>
@@ -3689,14 +3735,16 @@
         <f t="array" ref="B35">SUM(IF(A35='Raw Data'!B:B,'Raw Data'!E:E,IF(A35='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5">
+        <v>12123</v>
+      </c>
       <c r="D35" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12123</v>
       </c>
       <c r="F35" s="26" t="e">
         <f t="shared" si="4"/>
@@ -3874,14 +3922,16 @@
         <f t="array" ref="B40">SUM(IF(A40='Raw Data'!B:B,'Raw Data'!E:E,IF(A40='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>123123</v>
+      </c>
       <c r="D40" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>123123</v>
       </c>
       <c r="F40" s="26" t="e">
         <f t="shared" si="4"/>
@@ -4064,14 +4114,16 @@
         <f t="array" ref="B45">SUM(IF(A45='Raw Data'!B:B,'Raw Data'!E:E,IF(A45='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5">
+        <v>123</v>
+      </c>
       <c r="D45" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F45" s="26" t="e">
         <f t="shared" si="4"/>
@@ -6067,15 +6119,15 @@
   </protectedRanges>
   <customSheetViews>
     <customSheetView guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" showPageBreaks="1">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6084,7 +6136,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" showPageBreaks="1">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6897,7 +6949,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6906,7 +6958,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7391,7 +7443,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" topLeftCell="A22">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" topLeftCell="A22">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7399,7 +7451,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" topLeftCell="A22">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" topLeftCell="A22">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7446,7 +7498,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7454,7 +7506,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/main/resources/assets/template.xlsx
+++ b/src/main/resources/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwhite/vCheck1.1/src/main/resources/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{60A74CE7-F399-C04F-9B35-9366F264A539}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1C94F572-797D-9A4F-AE13-0D6D98DE09A3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18460" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   <calcPr calcId="179021"/>
   <customWorkbookViews>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" mergeInterval="0" personalView="1" yWindow="23" windowWidth="923" windowHeight="597" activeSheetId="1"/>
+    <customWorkbookView name="Carrie Andrews - Personal View" guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1672" yWindow="-8" windowWidth="1696" windowHeight="1026" activeSheetId="1"/>
     <customWorkbookView name="Jill Heath - Personal View" guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="927" activeSheetId="1"/>
-    <customWorkbookView name="Carrie Andrews - Personal View" guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1672" yWindow="-8" windowWidth="1696" windowHeight="1026" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5758893F-AFB4-2C4F-8631-297D426C7962}" diskRevisions="1" revisionId="36" version="5" preserveHistory="1825">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7475991F-F3DD-AE4C-983D-6AA4356C706B}" diskRevisions="1" revisionId="43" version="6" preserveHistory="1825">
   <header guid="{38C3440D-4EC0-4292-BC84-4A302E87F478}" dateTime="2014-08-25T14:40:29" maxSheetId="5" userName="Nicole VanDyke" r:id="rId12">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2061,6 +2061,14 @@
     </sheetIdMap>
   </header>
   <header guid="{5758893F-AFB4-2C4F-8631-297D426C7962}" dateTime="2018-09-17T20:52:05" maxSheetId="5" userName="Microsoft Office User" r:id="rId18" minRId="32" maxRId="36">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7475991F-F3DD-AE4C-983D-6AA4356C706B}" dateTime="2018-09-19T11:23:38" maxSheetId="5" userName="Microsoft Office User" r:id="rId19" minRId="37" maxRId="43">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2166,10 +2174,57 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="37" sId="1">
+    <oc r="C35">
+      <v>12123</v>
+    </oc>
+    <nc r="C35"/>
+  </rcc>
+  <rcc rId="38" sId="1">
+    <oc r="C40">
+      <v>123123</v>
+    </oc>
+    <nc r="C40"/>
+  </rcc>
+  <rcc rId="39" sId="1">
+    <oc r="C45">
+      <v>123</v>
+    </oc>
+    <nc r="C45"/>
+  </rcc>
+  <rcc rId="40" sId="1">
+    <oc r="C4">
+      <v>213</v>
+    </oc>
+    <nc r="C4"/>
+  </rcc>
+  <rcc rId="41" sId="1">
+    <oc r="C15">
+      <v>213123</v>
+    </oc>
+    <nc r="C15"/>
+  </rcc>
+  <rcc rId="42" sId="1">
+    <oc r="C21">
+      <v>2123</v>
+    </oc>
+    <nc r="C21"/>
+  </rcc>
+  <rcc rId="43" sId="1">
+    <oc r="C23">
+      <v>12123</v>
+    </oc>
+    <nc r="C23"/>
+  </rcc>
+  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="delete"/>
+  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{5758893F-AFB4-2C4F-8631-297D426C7962}" name="Microsoft Office User" id="-296959979" dateTime="2018-09-17T20:51:51"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2497,8 +2552,8 @@
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2584,16 +2639,14 @@
         <f t="array" ref="B4">SUM(IF(A4='Raw Data'!B:B,'Raw Data'!E:E,IF(A4='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="12">
-        <v>213</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="25" t="str">
         <f t="shared" ref="D4:D35" si="0">IF(AND(C4&lt;=H4,C4&gt;=I4),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E4" s="11">
         <f>(C4-B4)</f>
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="F4" s="26" t="e">
         <f>E4/B4</f>
@@ -2989,16 +3042,14 @@
         <f t="array" ref="B15">SUM(IF(A15='Raw Data'!B:B,'Raw Data'!E:E,IF(A15='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="5">
-        <v>213123</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="3"/>
-        <v>213123</v>
+        <v>0</v>
       </c>
       <c r="F15" s="26" t="e">
         <f t="shared" si="4"/>
@@ -3213,16 +3264,14 @@
         <f t="array" ref="B21">SUM(IF(A21='Raw Data'!B:B,'Raw Data'!E:E,IF(A21='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C21" s="5">
-        <v>2123</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="F21" s="26" t="e">
         <f t="shared" si="4"/>
@@ -3289,16 +3338,14 @@
         <f t="array" ref="B23">SUM(IF(A23='Raw Data'!B:B,'Raw Data'!E:E,IF(A23='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C23" s="5">
-        <v>12123</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="3"/>
-        <v>12123</v>
+        <v>0</v>
       </c>
       <c r="F23" s="26" t="e">
         <f t="shared" si="4"/>
@@ -3735,16 +3782,14 @@
         <f t="array" ref="B35">SUM(IF(A35='Raw Data'!B:B,'Raw Data'!E:E,IF(A35='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C35" s="5">
-        <v>12123</v>
-      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="3"/>
-        <v>12123</v>
+        <v>0</v>
       </c>
       <c r="F35" s="26" t="e">
         <f t="shared" si="4"/>
@@ -3922,16 +3967,14 @@
         <f t="array" ref="B40">SUM(IF(A40='Raw Data'!B:B,'Raw Data'!E:E,IF(A40='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C40" s="5">
-        <v>123123</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="3"/>
-        <v>123123</v>
+        <v>0</v>
       </c>
       <c r="F40" s="26" t="e">
         <f t="shared" si="4"/>
@@ -4114,16 +4157,14 @@
         <f t="array" ref="B45">SUM(IF(A45='Raw Data'!B:B,'Raw Data'!E:E,IF(A45='Raw Data'!A:A,'Raw Data'!D:D,0)))</f>
         <v>0</v>
       </c>
-      <c r="C45" s="5">
-        <v>123</v>
-      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="25" t="str">
         <f t="shared" si="5"/>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F45" s="26" t="e">
         <f t="shared" si="4"/>
@@ -6119,15 +6160,15 @@
   </protectedRanges>
   <customSheetViews>
     <customSheetView guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C23"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" showPageBreaks="1">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6136,7 +6177,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" showPageBreaks="1">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6949,7 +6990,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6958,7 +6999,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7443,7 +7484,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" topLeftCell="A22">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" topLeftCell="A22">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7451,7 +7492,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" topLeftCell="A22">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" topLeftCell="A22">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7498,7 +7539,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7506,7 +7547,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/main/resources/assets/template.xlsx
+++ b/src/main/resources/assets/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dwhite/vCheck1.1/src/main/resources/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Shared\QA-IN Process\HPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{1C94F572-797D-9A4F-AE13-0D6D98DE09A3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18460" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-345" yWindow="-165" windowWidth="18465" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -18,9 +17,8 @@
     <sheet name="Validation" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="171027"/>
   <customWorkbookViews>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" mergeInterval="0" personalView="1" yWindow="23" windowWidth="923" windowHeight="597" activeSheetId="1"/>
     <customWorkbookView name="Carrie Andrews - Personal View" guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1672" yWindow="-8" windowWidth="1696" windowHeight="1026" activeSheetId="1"/>
     <customWorkbookView name="Jill Heath - Personal View" guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="927" activeSheetId="1"/>
   </customWorkbookViews>
@@ -1494,7 +1492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1973,8 +1971,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Excel Validatin Tab" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_Ufill gravimetric summary 200ul 5-02-02" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Excel Validatin Tab" xfId="1"/>
+    <cellStyle name="Normal_Ufill gravimetric summary 200ul 5-02-02" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2011,7 +2009,89 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7475991F-F3DD-AE4C-983D-6AA4356C706B}" diskRevisions="1" revisionId="43" version="6" preserveHistory="1825">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B1BC44F1-0229-4768-9F52-A9155E5C8747}" diskRevisions="1" revisionId="27" version="2" preserveHistory="1825">
+  <header guid="{87E6FDFD-96EF-4286-BAB0-CE840E5BB314}" dateTime="2013-05-09T14:17:33" maxSheetId="4" userName="HPF-WS-02" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{92ED58A7-547D-43F9-A53A-E1DBCD9413CF}" dateTime="2013-05-09T14:20:29" maxSheetId="4" userName="HPF-WS-02" r:id="rId2" minRId="1">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3284D0FD-EAB3-451D-A1EA-1F3996093AD3}" dateTime="2013-05-09T14:21:00" maxSheetId="4" userName="HPF-WS-02" r:id="rId3" minRId="2">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A8566BC-BEFC-4993-83CF-C26E96020A53}" dateTime="2013-05-09T14:22:07" maxSheetId="4" userName="HPF-WS-02" r:id="rId4" minRId="3" maxRId="4">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{46DB9F3D-406A-4254-95DE-45DFAE09C1D7}" dateTime="2013-05-09T14:25:28" maxSheetId="4" userName="Curt Franklin" r:id="rId5">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4006E6F5-B5B6-4F9A-819F-A1B6CA35E69E}" dateTime="2013-05-09T14:25:59" maxSheetId="4" userName="Curt Franklin" r:id="rId6" minRId="5" maxRId="6">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D248C0D1-3374-4C24-8439-C5C338305024}" dateTime="2013-05-09T14:26:18" maxSheetId="4" userName="Curt Franklin" r:id="rId7">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{93BA7A30-01AA-4DA2-8D44-8764B57E57AA}" dateTime="2013-05-09T15:45:06" maxSheetId="4" userName="HPF-WS-02" r:id="rId8">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{97BA56BD-24AA-4D3B-B231-F88B4C6D364F}" dateTime="2013-05-09T15:51:02" maxSheetId="4" userName="HPF-WS-02" r:id="rId9" minRId="7" maxRId="26">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7B051AFF-644B-4C77-A8FA-1AEAF75967F4}" dateTime="2013-05-09T16:03:06" maxSheetId="5" userName="Nicole VanDyke" r:id="rId10" minRId="27">
+    <sheetIdMap count="4">
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+      <sheetId val="65535"/>
+      <sheetId val="6911"/>
+    </sheetIdMap>
+    <reviewedList count="1">
+      <reviewed rId="27"/>
+    </reviewedList>
+  </header>
+  <header guid="{F6B53A00-50BB-4E43-834F-0A964A96FE66}" dateTime="2013-05-09T16:03:19" maxSheetId="5" userName="Nicole VanDyke" r:id="rId11">
+    <sheetIdMap count="4">
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+      <sheetId val="65535"/>
+      <sheetId val="14848"/>
+    </sheetIdMap>
+  </header>
   <header guid="{38C3440D-4EC0-4292-BC84-4A302E87F478}" dateTime="2014-08-25T14:40:29" maxSheetId="5" userName="Nicole VanDyke" r:id="rId12">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2044,49 +2124,24 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{5479E745-28EF-A440-A300-10045B34BC4E}" dateTime="2018-09-17T15:48:11" maxSheetId="5" userName="Microsoft Office User" r:id="rId16" minRId="28">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{379B1AED-9713-5643-9AE1-ABD20A6A019C}" dateTime="2018-09-17T15:51:07" maxSheetId="5" userName="Microsoft Office User" r:id="rId17" minRId="29" maxRId="31">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5758893F-AFB4-2C4F-8631-297D426C7962}" dateTime="2018-09-17T20:52:05" maxSheetId="5" userName="Microsoft Office User" r:id="rId18" minRId="32" maxRId="36">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7475991F-F3DD-AE4C-983D-6AA4356C706B}" dateTime="2018-09-19T11:23:38" maxSheetId="5" userName="Microsoft Office User" r:id="rId19" minRId="37" maxRId="43">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="28" sId="1">
-    <nc r="C9">
-      <v>123</v>
-    </nc>
-  </rcc>
-  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="add"/>
+  <ris rId="27" sheetId="4" name="[HPF-xxx Backend Volume Check Template.xls]Sheet1" sheetPosition="3"/>
+  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="delete"/>
+  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="add"/>
 </revisions>
 </file>
 
@@ -2121,105 +2176,247 @@
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="29" sId="1">
-    <nc r="C4">
-      <v>213</v>
+  <rcc rId="1" sId="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>audit test</t>
+      </is>
     </nc>
   </rcc>
-  <rcc rId="30" sId="1">
-    <oc r="C9">
-      <v>123</v>
-    </oc>
-    <nc r="C9"/>
-  </rcc>
-  <rcc rId="31" sId="1">
-    <nc r="C15">
-      <v>213123</v>
-    </nc>
-  </rcc>
-  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="delete"/>
-  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="add"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="32" sId="1">
-    <nc r="C21">
-      <v>2123</v>
-    </nc>
+  <rcc rId="2" sId="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>audit test</t>
+      </is>
+    </oc>
+    <nc r="B1"/>
   </rcc>
-  <rcc rId="33" sId="1">
-    <nc r="C23">
-      <v>12123</v>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="1">
-    <nc r="C35">
-      <v>12123</v>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="1">
-    <nc r="C40">
-      <v>123123</v>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="1">
-    <nc r="C45">
-      <v>123</v>
-    </nc>
-  </rcc>
-  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="delete"/>
-  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="add"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="37" sId="1">
-    <oc r="C35">
-      <v>12123</v>
-    </oc>
-    <nc r="C35"/>
+  <rcc rId="3" sId="3">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>Golda Monohon</t>
+      </is>
+    </nc>
   </rcc>
-  <rcc rId="38" sId="1">
-    <oc r="C40">
-      <v>123123</v>
-    </oc>
-    <nc r="C40"/>
+  <rcc rId="4" sId="3" numFmtId="19">
+    <nc r="E27">
+      <v>41403</v>
+    </nc>
   </rcc>
-  <rcc rId="39" sId="1">
-    <oc r="C45">
-      <v>123</v>
-    </oc>
-    <nc r="C45"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="3">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Curt Franklin</t>
+      </is>
+    </nc>
   </rcc>
-  <rcc rId="40" sId="1">
-    <oc r="C4">
-      <v>213</v>
-    </oc>
-    <nc r="C4"/>
+  <rcc rId="6" sId="3" odxf="1" dxf="1" numFmtId="19">
+    <nc r="E29">
+      <v>41403</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
   </rcc>
-  <rcc rId="41" sId="1">
-    <oc r="C15">
-      <v>213123</v>
-    </oc>
-    <nc r="C15"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="delete"/>
+  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="3">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
   </rcc>
-  <rcc rId="42" sId="1">
-    <oc r="C21">
-      <v>2123</v>
-    </oc>
-    <nc r="C21"/>
+  <rcc rId="8" sId="3">
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
   </rcc>
-  <rcc rId="43" sId="1">
-    <oc r="C23">
-      <v>12123</v>
-    </oc>
-    <nc r="C23"/>
+  <rcc rId="9" sId="3">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
   </rcc>
-  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="delete"/>
-  <rcv guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" action="add"/>
+  <rcc rId="10" sId="3">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="3">
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="3">
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="3">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="3">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="3">
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="3">
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="3">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="3">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="3">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="3">
+    <nc r="F21" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="3">
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="3">
+    <nc r="F18" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="3">
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="3">
+    <nc r="F22" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="3">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="3" odxf="1" dxf="1">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="9"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+      </font>
+    </ndxf>
+  </rcc>
 </revisions>
 </file>
 
@@ -2547,36 +2744,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C23"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="32" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="2"/>
-    <col min="11" max="11" width="10.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="2"/>
-    <col min="14" max="14" width="22.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="22.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="35" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="2"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>98</v>
       </c>
@@ -2591,7 +2788,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2602,7 +2799,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:16" s="22" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2828,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
@@ -2667,7 +2864,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
@@ -2703,7 +2900,7 @@
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>4</v>
       </c>
@@ -2739,7 +2936,7 @@
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -2775,7 +2972,7 @@
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
@@ -2812,7 +3009,7 @@
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
@@ -2849,7 +3046,7 @@
       <c r="O9" s="27"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -2886,7 +3083,7 @@
       <c r="O10" s="27"/>
       <c r="P10" s="29"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
@@ -2923,7 +3120,7 @@
       <c r="O11" s="27"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>61</v>
       </c>
@@ -2960,7 +3157,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>62</v>
       </c>
@@ -2997,7 +3194,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>63</v>
       </c>
@@ -3034,7 +3231,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>64</v>
       </c>
@@ -3071,7 +3268,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
@@ -3108,7 +3305,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
@@ -3145,7 +3342,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="29"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
@@ -3182,7 +3379,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -3219,7 +3416,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -3256,7 +3453,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>15</v>
       </c>
@@ -3293,7 +3490,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>16</v>
       </c>
@@ -3330,7 +3527,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3564,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>65</v>
       </c>
@@ -3404,7 +3601,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>66</v>
       </c>
@@ -3441,7 +3638,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>67</v>
       </c>
@@ -3478,7 +3675,7 @@
       <c r="O26" s="27"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>68</v>
       </c>
@@ -3515,7 +3712,7 @@
       <c r="O27" s="27"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>18</v>
       </c>
@@ -3552,7 +3749,7 @@
       <c r="O28" s="27"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>19</v>
       </c>
@@ -3589,7 +3786,7 @@
       <c r="O29" s="27"/>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>20</v>
       </c>
@@ -3626,7 +3823,7 @@
       <c r="O30" s="27"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>21</v>
       </c>
@@ -3663,7 +3860,7 @@
       <c r="O31" s="27"/>
       <c r="P31" s="29"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -3700,7 +3897,7 @@
       <c r="O32" s="27"/>
       <c r="P32" s="29"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>23</v>
       </c>
@@ -3737,7 +3934,7 @@
       <c r="O33" s="27"/>
       <c r="P33" s="29"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>24</v>
       </c>
@@ -3774,7 +3971,7 @@
       <c r="O34" s="27"/>
       <c r="P34" s="29"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>25</v>
       </c>
@@ -3811,7 +4008,7 @@
       <c r="O35" s="27"/>
       <c r="P35" s="29"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>69</v>
       </c>
@@ -3848,7 +4045,7 @@
       <c r="O36" s="27"/>
       <c r="P36" s="29"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>70</v>
       </c>
@@ -3885,7 +4082,7 @@
       <c r="O37" s="27"/>
       <c r="P37" s="29"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>71</v>
       </c>
@@ -3922,7 +4119,7 @@
       <c r="O38" s="27"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>72</v>
       </c>
@@ -3959,7 +4156,7 @@
       <c r="O39" s="27"/>
       <c r="P39" s="29"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>26</v>
       </c>
@@ -3997,7 +4194,7 @@
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>27</v>
       </c>
@@ -4035,7 +4232,7 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>28</v>
       </c>
@@ -4073,7 +4270,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
         <v>29</v>
       </c>
@@ -4111,7 +4308,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>30</v>
       </c>
@@ -4149,7 +4346,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>31</v>
       </c>
@@ -4187,7 +4384,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>32</v>
       </c>
@@ -4225,7 +4422,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
         <v>73</v>
       </c>
@@ -4263,7 +4460,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>74</v>
       </c>
@@ -4301,7 +4498,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>75</v>
       </c>
@@ -4339,7 +4536,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>76</v>
       </c>
@@ -4377,7 +4574,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>77</v>
       </c>
@@ -4415,7 +4612,7 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>33</v>
       </c>
@@ -4453,7 +4650,7 @@
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>34</v>
       </c>
@@ -4491,7 +4688,7 @@
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>35</v>
       </c>
@@ -4529,7 +4726,7 @@
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>36</v>
       </c>
@@ -4567,7 +4764,7 @@
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>37</v>
       </c>
@@ -4603,7 +4800,7 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>38</v>
       </c>
@@ -4639,7 +4836,7 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>39</v>
       </c>
@@ -4675,7 +4872,7 @@
       <c r="M58" s="30"/>
       <c r="N58" s="30"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>78</v>
       </c>
@@ -4711,7 +4908,7 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>79</v>
       </c>
@@ -4747,7 +4944,7 @@
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>80</v>
       </c>
@@ -4783,7 +4980,7 @@
       <c r="M61" s="30"/>
       <c r="N61" s="30"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>81</v>
       </c>
@@ -4819,7 +5016,7 @@
       <c r="M62" s="30"/>
       <c r="N62" s="30"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>82</v>
       </c>
@@ -4855,7 +5052,7 @@
       <c r="M63" s="30"/>
       <c r="N63" s="30"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>40</v>
       </c>
@@ -4891,7 +5088,7 @@
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>41</v>
       </c>
@@ -4927,7 +5124,7 @@
       <c r="M65" s="30"/>
       <c r="N65" s="30"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>42</v>
       </c>
@@ -4963,7 +5160,7 @@
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>43</v>
       </c>
@@ -4999,7 +5196,7 @@
       <c r="M67" s="30"/>
       <c r="N67" s="30"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>44</v>
       </c>
@@ -5035,7 +5232,7 @@
       <c r="M68" s="30"/>
       <c r="N68" s="30"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>45</v>
       </c>
@@ -5071,7 +5268,7 @@
       <c r="M69" s="30"/>
       <c r="N69" s="30"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>46</v>
       </c>
@@ -5107,7 +5304,7 @@
       <c r="M70" s="30"/>
       <c r="N70" s="30"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>83</v>
       </c>
@@ -5143,7 +5340,7 @@
       <c r="M71" s="30"/>
       <c r="N71" s="30"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>84</v>
       </c>
@@ -5179,7 +5376,7 @@
       <c r="M72" s="30"/>
       <c r="N72" s="30"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>85</v>
       </c>
@@ -5215,7 +5412,7 @@
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>86</v>
       </c>
@@ -5251,7 +5448,7 @@
       <c r="M74" s="30"/>
       <c r="N74" s="30"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>87</v>
       </c>
@@ -5287,7 +5484,7 @@
       <c r="M75" s="30"/>
       <c r="N75" s="30"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
         <v>47</v>
       </c>
@@ -5323,7 +5520,7 @@
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>48</v>
       </c>
@@ -5359,7 +5556,7 @@
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>49</v>
       </c>
@@ -5395,7 +5592,7 @@
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>50</v>
       </c>
@@ -5431,7 +5628,7 @@
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>51</v>
       </c>
@@ -5467,7 +5664,7 @@
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>52</v>
       </c>
@@ -5503,7 +5700,7 @@
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>53</v>
       </c>
@@ -5539,7 +5736,7 @@
       <c r="M82" s="30"/>
       <c r="N82" s="30"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>88</v>
       </c>
@@ -5575,7 +5772,7 @@
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>89</v>
       </c>
@@ -5611,7 +5808,7 @@
       <c r="M84" s="30"/>
       <c r="N84" s="30"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>90</v>
       </c>
@@ -5647,7 +5844,7 @@
       <c r="M85" s="30"/>
       <c r="N85" s="30"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>91</v>
       </c>
@@ -5683,7 +5880,7 @@
       <c r="M86" s="30"/>
       <c r="N86" s="30"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>92</v>
       </c>
@@ -5719,7 +5916,7 @@
       <c r="M87" s="30"/>
       <c r="N87" s="30"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>54</v>
       </c>
@@ -5755,7 +5952,7 @@
       <c r="M88" s="30"/>
       <c r="N88" s="30"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>55</v>
       </c>
@@ -5791,7 +5988,7 @@
       <c r="M89" s="30"/>
       <c r="N89" s="30"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>56</v>
       </c>
@@ -5827,7 +6024,7 @@
       <c r="M90" s="30"/>
       <c r="N90" s="30"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>57</v>
       </c>
@@ -5863,7 +6060,7 @@
       <c r="M91" s="30"/>
       <c r="N91" s="30"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>58</v>
       </c>
@@ -5899,7 +6096,7 @@
       <c r="M92" s="30"/>
       <c r="N92" s="30"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>59</v>
       </c>
@@ -5935,7 +6132,7 @@
       <c r="M93" s="30"/>
       <c r="N93" s="30"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>60</v>
       </c>
@@ -5971,7 +6168,7 @@
       <c r="M94" s="30"/>
       <c r="N94" s="30"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>93</v>
       </c>
@@ -6007,7 +6204,7 @@
       <c r="M95" s="30"/>
       <c r="N95" s="30"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>94</v>
       </c>
@@ -6043,7 +6240,7 @@
       <c r="M96" s="30"/>
       <c r="N96" s="30"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>95</v>
       </c>
@@ -6079,7 +6276,7 @@
       <c r="M97" s="30"/>
       <c r="N97" s="30"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
         <v>96</v>
       </c>
@@ -6115,7 +6312,7 @@
       <c r="M98" s="30"/>
       <c r="N98" s="30"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
         <v>97</v>
       </c>
@@ -6152,6 +6349,7 @@
       <c r="N99" s="30"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="B1" name="Range1"/>
@@ -6159,20 +6357,11 @@
     <protectedRange sqref="K4:O39 P4:IV65536 J40:O65536" name="Range4"/>
   </protectedRanges>
   <customSheetViews>
-    <customSheetView guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C23"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;LHPF-112 REV02</oddFooter>
-      </headerFooter>
-    </customSheetView>
     <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
@@ -6181,7 +6370,7 @@
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
@@ -6197,7 +6386,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LHPF-112 REV02</oddFooter>
   </headerFooter>
@@ -6205,7 +6394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6214,15 +6403,15 @@
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="32.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="1"/>
-    <col min="2" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="32.1640625" style="1"/>
+    <col min="1" max="1" width="32.140625" style="1"/>
+    <col min="2" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="32.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>153</v>
       </c>
@@ -6231,7 +6420,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
     </row>
-    <row r="2" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -6239,7 +6428,7 @@
       <c r="E2" s="36"/>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -6247,7 +6436,7 @@
       <c r="E3" s="36"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6255,7 +6444,7 @@
       <c r="E4" s="36"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -6263,7 +6452,7 @@
       <c r="E5" s="36"/>
       <c r="K5" s="37"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -6271,7 +6460,7 @@
       <c r="E6" s="36"/>
       <c r="K6" s="37"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -6279,7 +6468,7 @@
       <c r="E7" s="36"/>
       <c r="K7" s="37"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6287,7 +6476,7 @@
       <c r="E8" s="36"/>
       <c r="K8" s="37"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -6295,7 +6484,7 @@
       <c r="E9" s="36"/>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -6303,7 +6492,7 @@
       <c r="E10" s="36"/>
       <c r="K10" s="37"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -6311,7 +6500,7 @@
       <c r="E11" s="36"/>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -6319,7 +6508,7 @@
       <c r="E12" s="36"/>
       <c r="K12" s="37"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -6327,7 +6516,7 @@
       <c r="E13" s="36"/>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -6335,7 +6524,7 @@
       <c r="E14" s="36"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -6343,7 +6532,7 @@
       <c r="E15" s="36"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -6351,7 +6540,7 @@
       <c r="E16" s="36"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -6359,7 +6548,7 @@
       <c r="E17" s="36"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -6367,7 +6556,7 @@
       <c r="E18" s="36"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -6375,7 +6564,7 @@
       <c r="E19" s="36"/>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -6383,7 +6572,7 @@
       <c r="E20" s="36"/>
       <c r="K20" s="37"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -6391,7 +6580,7 @@
       <c r="E21" s="36"/>
       <c r="K21" s="37"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -6399,7 +6588,7 @@
       <c r="E22" s="36"/>
       <c r="K22" s="37"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -6407,7 +6596,7 @@
       <c r="E23" s="36"/>
       <c r="K23" s="37"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -6415,7 +6604,7 @@
       <c r="E24" s="36"/>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -6423,7 +6612,7 @@
       <c r="E25" s="36"/>
       <c r="K25" s="37"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -6431,7 +6620,7 @@
       <c r="E26" s="36"/>
       <c r="K26" s="37"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -6439,7 +6628,7 @@
       <c r="E27" s="36"/>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -6447,7 +6636,7 @@
       <c r="E28" s="36"/>
       <c r="K28" s="37"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -6455,7 +6644,7 @@
       <c r="E29" s="36"/>
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -6463,7 +6652,7 @@
       <c r="E30" s="36"/>
       <c r="K30" s="37"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -6471,7 +6660,7 @@
       <c r="E31" s="36"/>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -6479,7 +6668,7 @@
       <c r="E32" s="36"/>
       <c r="K32" s="37"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -6487,7 +6676,7 @@
       <c r="E33" s="36"/>
       <c r="K33" s="37"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -6495,7 +6684,7 @@
       <c r="E34" s="36"/>
       <c r="K34" s="37"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -6503,7 +6692,7 @@
       <c r="E35" s="36"/>
       <c r="K35" s="37"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -6511,7 +6700,7 @@
       <c r="E36" s="36"/>
       <c r="K36" s="37"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -6519,7 +6708,7 @@
       <c r="E37" s="36"/>
       <c r="K37" s="37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -6527,7 +6716,7 @@
       <c r="E38" s="36"/>
       <c r="K38" s="37"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -6535,7 +6724,7 @@
       <c r="E39" s="36"/>
       <c r="K39" s="37"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -6543,7 +6732,7 @@
       <c r="E40" s="36"/>
       <c r="K40" s="37"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -6551,7 +6740,7 @@
       <c r="E41" s="36"/>
       <c r="K41" s="37"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -6559,7 +6748,7 @@
       <c r="E42" s="36"/>
       <c r="K42" s="37"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -6567,7 +6756,7 @@
       <c r="E43" s="36"/>
       <c r="K43" s="37"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -6575,7 +6764,7 @@
       <c r="E44" s="36"/>
       <c r="K44" s="37"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -6583,7 +6772,7 @@
       <c r="E45" s="36"/>
       <c r="K45" s="37"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -6591,7 +6780,7 @@
       <c r="E46" s="36"/>
       <c r="K46" s="37"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -6599,7 +6788,7 @@
       <c r="E47" s="36"/>
       <c r="K47" s="37"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -6607,7 +6796,7 @@
       <c r="E48" s="36"/>
       <c r="K48" s="37"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -6615,7 +6804,7 @@
       <c r="E49" s="36"/>
       <c r="K49" s="37"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -6623,7 +6812,7 @@
       <c r="E50" s="36"/>
       <c r="K50" s="37"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -6631,7 +6820,7 @@
       <c r="E51" s="36"/>
       <c r="K51" s="37"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -6639,7 +6828,7 @@
       <c r="E52" s="36"/>
       <c r="K52" s="37"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -6647,7 +6836,7 @@
       <c r="E53" s="36"/>
       <c r="K53" s="37"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -6655,7 +6844,7 @@
       <c r="E54" s="36"/>
       <c r="K54" s="37"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
@@ -6663,7 +6852,7 @@
       <c r="E55" s="36"/>
       <c r="K55" s="37"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -6671,7 +6860,7 @@
       <c r="E56" s="36"/>
       <c r="K56" s="37"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
@@ -6679,7 +6868,7 @@
       <c r="E57" s="36"/>
       <c r="K57" s="37"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -6687,7 +6876,7 @@
       <c r="E58" s="36"/>
       <c r="K58" s="37"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -6695,7 +6884,7 @@
       <c r="E59" s="36"/>
       <c r="K59" s="37"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -6703,7 +6892,7 @@
       <c r="E60" s="36"/>
       <c r="K60" s="37"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -6711,7 +6900,7 @@
       <c r="E61" s="36"/>
       <c r="K61" s="37"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -6719,7 +6908,7 @@
       <c r="E62" s="36"/>
       <c r="K62" s="37"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -6727,7 +6916,7 @@
       <c r="E63" s="36"/>
       <c r="K63" s="37"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -6735,7 +6924,7 @@
       <c r="E64" s="36"/>
       <c r="K64" s="37"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -6743,7 +6932,7 @@
       <c r="E65" s="36"/>
       <c r="K65" s="37"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -6751,7 +6940,7 @@
       <c r="E66" s="36"/>
       <c r="K66" s="37"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -6759,7 +6948,7 @@
       <c r="E67" s="36"/>
       <c r="K67" s="37"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -6767,7 +6956,7 @@
       <c r="E68" s="36"/>
       <c r="K68" s="37"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="12"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -6775,7 +6964,7 @@
       <c r="E69" s="36"/>
       <c r="K69" s="37"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="12"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -6783,7 +6972,7 @@
       <c r="E70" s="36"/>
       <c r="K70" s="37"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -6791,7 +6980,7 @@
       <c r="E71" s="36"/>
       <c r="K71" s="37"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -6799,7 +6988,7 @@
       <c r="E72" s="36"/>
       <c r="K72" s="37"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -6807,168 +6996,168 @@
       <c r="E73" s="36"/>
       <c r="K73" s="37"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="12"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -6981,7 +7170,7 @@
     <protectedRange sqref="A1:D289 A290:E65533" name="Range4_3"/>
   </protectedRanges>
   <customSheetViews>
-    <customSheetView guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6990,7 +7179,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6999,18 +7188,9 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;LHPF-112 REV02</oddFooter>
-      </headerFooter>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LHPF-112 REV02</oddFooter>
   </headerFooter>
@@ -7018,24 +7198,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="39.33203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="39" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="39"/>
+    <col min="2" max="4" width="39.28515625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="39" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38"/>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -7044,7 +7224,7 @@
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
         <v>107</v>
       </c>
@@ -7055,7 +7235,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -7064,7 +7244,7 @@
       <c r="F3" s="60"/>
       <c r="G3" s="61"/>
     </row>
-    <row r="4" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="60"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -7073,7 +7253,7 @@
       <c r="F4" s="60"/>
       <c r="G4" s="61"/>
     </row>
-    <row r="5" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -7082,7 +7262,7 @@
       <c r="F5" s="60"/>
       <c r="G5" s="61"/>
     </row>
-    <row r="6" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -7091,7 +7271,7 @@
       <c r="F6" s="60"/>
       <c r="G6" s="61"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -7100,7 +7280,7 @@
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
         <v>108</v>
       </c>
@@ -7111,7 +7291,7 @@
       <c r="F8" s="63"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -7120,7 +7300,7 @@
       <c r="F9" s="63"/>
       <c r="G9" s="63"/>
     </row>
-    <row r="10" spans="1:7" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>109</v>
       </c>
@@ -7133,7 +7313,7 @@
       <c r="F10" s="67"/>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" s="43" customFormat="1" ht="37" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="43" customFormat="1" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>110</v>
       </c>
@@ -7156,7 +7336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="98" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="44">
         <v>1</v>
       </c>
@@ -7177,7 +7357,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>2</v>
       </c>
@@ -7198,7 +7378,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>3</v>
       </c>
@@ -7219,7 +7399,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="44">
         <v>4</v>
       </c>
@@ -7240,7 +7420,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>5</v>
       </c>
@@ -7261,7 +7441,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="44">
         <v>6</v>
       </c>
@@ -7282,7 +7462,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="168" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="44">
         <v>7</v>
       </c>
@@ -7303,7 +7483,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>109</v>
       </c>
@@ -7316,7 +7496,7 @@
       <c r="F19" s="67"/>
       <c r="G19" s="68"/>
     </row>
-    <row r="20" spans="1:7" s="43" customFormat="1" ht="37" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" s="43" customFormat="1" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
         <v>110</v>
       </c>
@@ -7339,7 +7519,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
         <v>1</v>
       </c>
@@ -7360,7 +7540,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" ht="168" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="153" x14ac:dyDescent="0.2">
       <c r="A22" s="44">
         <v>3</v>
       </c>
@@ -7383,7 +7563,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="69" t="s">
         <v>120</v>
       </c>
@@ -7394,7 +7574,7 @@
       <c r="F23" s="70"/>
       <c r="G23" s="71"/>
     </row>
-    <row r="24" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" s="43" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
         <v>110</v>
       </c>
@@ -7417,7 +7597,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44"/>
       <c r="B25" s="48" t="s">
         <v>124</v>
@@ -7436,7 +7616,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="49" t="s">
         <v>127</v>
       </c>
@@ -7451,14 +7631,14 @@
       </c>
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="50"/>
       <c r="C28" s="51"/>
       <c r="D28" s="50"/>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="49" t="s">
         <v>129</v>
       </c>
@@ -7476,7 +7656,7 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}" topLeftCell="A22">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" topLeftCell="A22">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7484,18 +7664,10 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" topLeftCell="A22">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" topLeftCell="A22">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;LHPF-112 REV02</oddFooter>
-      </headerFooter>
-    </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}" topLeftCell="A22">
-      <selection activeCell="G9" sqref="G9"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
@@ -7513,7 +7685,7 @@
     <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LHPF-112 REV02</oddFooter>
   </headerFooter>
@@ -7521,17 +7693,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{D6E20411-6DF8-1745-A20C-51C951CD7C61}">
+    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7539,7 +7711,7 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}">
+    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7547,17 +7719,9 @@
         <oddFooter>&amp;LHPF-112 REV02</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{D4BC0202-85EA-4C8E-ACF5-B79344380D31}">
-      <selection activeCell="G9" sqref="G9"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <headerFooter alignWithMargins="0">
-        <oddFooter>&amp;LHPF-112 REV02</oddFooter>
-      </headerFooter>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LHPF-112 REV02</oddFooter>
   </headerFooter>

--- a/src/main/resources/assets/template.xlsx
+++ b/src/main/resources/assets/template.xlsx
@@ -2010,6 +2010,88 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B1BC44F1-0229-4768-9F52-A9155E5C8747}" diskRevisions="1" revisionId="27" version="2" preserveHistory="1825">
+  <header guid="{87E6FDFD-96EF-4286-BAB0-CE840E5BB314}" dateTime="2013-05-09T14:17:33" maxSheetId="4" userName="HPF-WS-02" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{92ED58A7-547D-43F9-A53A-E1DBCD9413CF}" dateTime="2013-05-09T14:20:29" maxSheetId="4" userName="HPF-WS-02" r:id="rId2" minRId="1">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3284D0FD-EAB3-451D-A1EA-1F3996093AD3}" dateTime="2013-05-09T14:21:00" maxSheetId="4" userName="HPF-WS-02" r:id="rId3" minRId="2">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A8566BC-BEFC-4993-83CF-C26E96020A53}" dateTime="2013-05-09T14:22:07" maxSheetId="4" userName="HPF-WS-02" r:id="rId4" minRId="3" maxRId="4">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{46DB9F3D-406A-4254-95DE-45DFAE09C1D7}" dateTime="2013-05-09T14:25:28" maxSheetId="4" userName="Curt Franklin" r:id="rId5">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4006E6F5-B5B6-4F9A-819F-A1B6CA35E69E}" dateTime="2013-05-09T14:25:59" maxSheetId="4" userName="Curt Franklin" r:id="rId6" minRId="5" maxRId="6">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D248C0D1-3374-4C24-8439-C5C338305024}" dateTime="2013-05-09T14:26:18" maxSheetId="4" userName="Curt Franklin" r:id="rId7">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{93BA7A30-01AA-4DA2-8D44-8764B57E57AA}" dateTime="2013-05-09T15:45:06" maxSheetId="4" userName="HPF-WS-02" r:id="rId8">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{97BA56BD-24AA-4D3B-B231-F88B4C6D364F}" dateTime="2013-05-09T15:51:02" maxSheetId="4" userName="HPF-WS-02" r:id="rId9" minRId="7" maxRId="26">
+    <sheetIdMap count="3">
+      <sheetId val="0"/>
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7B051AFF-644B-4C77-A8FA-1AEAF75967F4}" dateTime="2013-05-09T16:03:06" maxSheetId="5" userName="Nicole VanDyke" r:id="rId10" minRId="27">
+    <sheetIdMap count="4">
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+      <sheetId val="65535"/>
+      <sheetId val="6911"/>
+    </sheetIdMap>
+    <reviewedList count="1">
+      <reviewed rId="27"/>
+    </reviewedList>
+  </header>
+  <header guid="{F6B53A00-50BB-4E43-834F-0A964A96FE66}" dateTime="2013-05-09T16:03:19" maxSheetId="5" userName="Nicole VanDyke" r:id="rId11">
+    <sheetIdMap count="4">
+      <sheetId val="32"/>
+      <sheetId val="0"/>
+      <sheetId val="65535"/>
+      <sheetId val="14848"/>
+    </sheetIdMap>
+  </header>
   <header guid="{38C3440D-4EC0-4292-BC84-4A302E87F478}" dateTime="2014-08-25T14:40:29" maxSheetId="5" userName="Nicole VanDyke" r:id="rId12">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2045,6 +2127,24 @@
 </headers>
 </file>
 
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="27" sheetId="4" name="[HPF-xxx Backend Volume Check Template.xls]Sheet1" sheetPosition="3"/>
+  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="delete"/>
+  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="delete"/>
@@ -2071,6 +2171,252 @@
 <file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{A079EE5E-548E-44E6-8CD6-9DE38EF18C5D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>audit test</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="1">
+    <oc r="B1" t="inlineStr">
+      <is>
+        <t>audit test</t>
+      </is>
+    </oc>
+    <nc r="B1"/>
+  </rcc>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="3">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>Golda Monohon</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="3" numFmtId="19">
+    <nc r="E27">
+      <v>41403</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="3">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>Curt Franklin</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="3" odxf="1" dxf="1" numFmtId="19">
+    <nc r="E29">
+      <v>41403</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="delete"/>
+  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
+  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="7" sId="3">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="3">
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="3">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="3">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="3">
+    <nc r="E14" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="3">
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="3">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="3">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="3">
+    <nc r="E16" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="3">
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="3">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="3">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="3">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="3">
+    <nc r="F21" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="3">
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="3">
+    <nc r="F18" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="3">
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="3">
+    <nc r="F22" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="3">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="3" odxf="1" dxf="1">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>GLM  5/9/2013</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="9"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="9"/>
+      </font>
+    </ndxf>
+  </rcc>
 </revisions>
 </file>
 

--- a/src/main/resources/assets/template.xlsx
+++ b/src/main/resources/assets/template.xlsx
@@ -2421,7 +2421,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{B1BC44F1-0229-4768-9F52-A9155E5C8747}" name="Microsoft Office User" id="-296946436" dateTime="2018-10-09T13:27:14"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/main/resources/assets/template.xlsx
+++ b/src/main/resources/assets/template.xlsx
@@ -2010,88 +2010,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B1BC44F1-0229-4768-9F52-A9155E5C8747}" diskRevisions="1" revisionId="27" version="2" preserveHistory="1825">
-  <header guid="{87E6FDFD-96EF-4286-BAB0-CE840E5BB314}" dateTime="2013-05-09T14:17:33" maxSheetId="4" userName="HPF-WS-02" r:id="rId1">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{92ED58A7-547D-43F9-A53A-E1DBCD9413CF}" dateTime="2013-05-09T14:20:29" maxSheetId="4" userName="HPF-WS-02" r:id="rId2" minRId="1">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3284D0FD-EAB3-451D-A1EA-1F3996093AD3}" dateTime="2013-05-09T14:21:00" maxSheetId="4" userName="HPF-WS-02" r:id="rId3" minRId="2">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6A8566BC-BEFC-4993-83CF-C26E96020A53}" dateTime="2013-05-09T14:22:07" maxSheetId="4" userName="HPF-WS-02" r:id="rId4" minRId="3" maxRId="4">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{46DB9F3D-406A-4254-95DE-45DFAE09C1D7}" dateTime="2013-05-09T14:25:28" maxSheetId="4" userName="Curt Franklin" r:id="rId5">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4006E6F5-B5B6-4F9A-819F-A1B6CA35E69E}" dateTime="2013-05-09T14:25:59" maxSheetId="4" userName="Curt Franklin" r:id="rId6" minRId="5" maxRId="6">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D248C0D1-3374-4C24-8439-C5C338305024}" dateTime="2013-05-09T14:26:18" maxSheetId="4" userName="Curt Franklin" r:id="rId7">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{93BA7A30-01AA-4DA2-8D44-8764B57E57AA}" dateTime="2013-05-09T15:45:06" maxSheetId="4" userName="HPF-WS-02" r:id="rId8">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{97BA56BD-24AA-4D3B-B231-F88B4C6D364F}" dateTime="2013-05-09T15:51:02" maxSheetId="4" userName="HPF-WS-02" r:id="rId9" minRId="7" maxRId="26">
-    <sheetIdMap count="3">
-      <sheetId val="0"/>
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7B051AFF-644B-4C77-A8FA-1AEAF75967F4}" dateTime="2013-05-09T16:03:06" maxSheetId="5" userName="Nicole VanDyke" r:id="rId10" minRId="27">
-    <sheetIdMap count="4">
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-      <sheetId val="65535"/>
-      <sheetId val="6911"/>
-    </sheetIdMap>
-    <reviewedList count="1">
-      <reviewed rId="27"/>
-    </reviewedList>
-  </header>
-  <header guid="{F6B53A00-50BB-4E43-834F-0A964A96FE66}" dateTime="2013-05-09T16:03:19" maxSheetId="5" userName="Nicole VanDyke" r:id="rId11">
-    <sheetIdMap count="4">
-      <sheetId val="32"/>
-      <sheetId val="0"/>
-      <sheetId val="65535"/>
-      <sheetId val="14848"/>
-    </sheetIdMap>
-  </header>
   <header guid="{38C3440D-4EC0-4292-BC84-4A302E87F478}" dateTime="2014-08-25T14:40:29" maxSheetId="5" userName="Nicole VanDyke" r:id="rId12">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2127,24 +2045,6 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="27" sheetId="4" name="[HPF-xxx Backend Volume Check Template.xls]Sheet1" sheetPosition="3"/>
-  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="delete"/>
-  <rcv guid="{9F84A064-4324-4DEF-94DB-E2DBDFD7C916}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="delete"/>
@@ -2174,256 +2074,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1">
-    <nc r="B1" t="inlineStr">
-      <is>
-        <t>audit test</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
-  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="2" sId="1">
-    <oc r="B1" t="inlineStr">
-      <is>
-        <t>audit test</t>
-      </is>
-    </oc>
-    <nc r="B1"/>
-  </rcc>
-  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
-  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="3" sId="3">
-    <nc r="C27" t="inlineStr">
-      <is>
-        <t>Golda Monohon</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="3" numFmtId="19">
-    <nc r="E27">
-      <v>41403</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="5" sId="3">
-    <nc r="C29" t="inlineStr">
-      <is>
-        <t>Curt Franklin</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="3" odxf="1" dxf="1" numFmtId="19">
-    <nc r="E29">
-      <v>41403</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="delete"/>
-  <rcv guid="{E305E553-7664-4FB6-A7EB-4038600BBB9A}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="delete"/>
-  <rcv guid="{0FE0FB27-0CB1-41B7-8EAA-ED1EF06EC50A}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="7" sId="3">
-    <nc r="E12" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="3">
-    <nc r="F12" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="3">
-    <nc r="E13" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="3">
-    <nc r="F13" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="3">
-    <nc r="E14" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="3">
-    <nc r="F14" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="3">
-    <nc r="E15" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="3">
-    <nc r="F15" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="3">
-    <nc r="E16" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="3">
-    <nc r="F16" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="3">
-    <nc r="E17" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="3">
-    <nc r="F17" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="3">
-    <nc r="E21" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="3">
-    <nc r="F21" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="3">
-    <nc r="E18" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="3">
-    <nc r="F18" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="23" sId="3">
-    <nc r="E22" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="3">
-    <nc r="F22" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="3">
-    <nc r="E25" t="inlineStr">
-      <is>
-        <t>Pass</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="3" odxf="1" dxf="1">
-    <nc r="F25" t="inlineStr">
-      <is>
-        <t>GLM  5/9/2013</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <b val="0"/>
-        <sz val="9"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="9"/>
-      </font>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B1BC44F1-0229-4768-9F52-A9155E5C8747}" name="Microsoft Office User" id="-296946436" dateTime="2018-10-09T13:27:14"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
